--- a/信用卡片回饋特色/國泰卡片回饋特色.xlsx
+++ b/信用卡片回饋特色/國泰卡片回饋特色.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8b62ba60823c0ee/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiChing\Desktop\project\信用卡片回饋特色\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{C020E1C4-838E-4528-9E7D-EA26E49E4EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46677A50-0AF2-400E-9645-BA12CF971569}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8744CBD9-7D6A-473C-97A7-24CFE0031F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7E5BACEC-91BB-4297-80DE-9ED3ADC1BC84}"/>
+    <workbookView minimized="1" xWindow="6456" yWindow="3132" windowWidth="17280" windowHeight="8880" xr2:uid="{7E5BACEC-91BB-4297-80DE-9ED3ADC1BC84}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -623,16 +623,16 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B45"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" customWidth="1"/>
-    <col min="2" max="2" width="70.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -648,12 +648,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -661,32 +661,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -702,12 +702,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -715,12 +715,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -728,7 +728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -736,7 +736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -744,27 +744,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -772,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -780,22 +780,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -803,22 +803,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -826,7 +826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -834,12 +834,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -847,12 +847,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -860,33 +860,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
     </row>
   </sheetData>

--- a/信用卡片回饋特色/國泰卡片回饋特色.xlsx
+++ b/信用卡片回饋特色/國泰卡片回饋特色.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiChing\Desktop\project\信用卡片回饋特色\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8b62ba60823c0ee/桌面/project/信用卡片回饋特色/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8744CBD9-7D6A-473C-97A7-24CFE0031F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6456" yWindow="3132" windowWidth="17280" windowHeight="8880" xr2:uid="{7E5BACEC-91BB-4297-80DE-9ED3ADC1BC84}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7E5BACEC-91BB-4297-80DE-9ED3ADC1BC84}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -622,17 +622,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946BA7AC-F919-432B-AA41-3FA6F95A51EC}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -648,12 +648,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -661,32 +661,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -702,12 +702,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -715,12 +715,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -728,7 +728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -736,7 +736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -744,27 +744,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -772,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -780,22 +780,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -803,22 +803,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -826,7 +826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -834,12 +834,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -847,12 +847,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -860,33 +860,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B45" s="2"/>
     </row>
   </sheetData>
